--- a/Confusion Matrices.xlsx
+++ b/Confusion Matrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AlexNet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Altocumulus</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Epoch  = 50. Loss: 2.082758757095138, Accuracy: 0.559322033393181</t>
+  </si>
+  <si>
+    <t>Epoch  = 45. Loss: 1.7908467705588609, Accuracy: 0.6414602342143052</t>
   </si>
 </sst>
 </file>
@@ -180,12 +183,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="47"/>
     </xf>
@@ -199,6 +196,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="47"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,46 +533,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -605,12 +608,12 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -646,10 +649,10 @@
       <c r="M4" s="1">
         <v>7</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
@@ -685,10 +688,10 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
@@ -724,10 +727,10 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -763,10 +766,10 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -802,10 +805,10 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -841,10 +844,10 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -880,10 +883,10 @@
       <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -919,10 +922,10 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -958,10 +961,10 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -997,23 +1000,23 @@
       <c r="M13" s="1">
         <v>99</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1149,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,46 +1165,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -1237,12 +1240,12 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -1278,10 +1281,10 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
@@ -1317,10 +1320,10 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
@@ -1356,10 +1359,10 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1395,10 +1398,10 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -1434,10 +1437,10 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1473,10 +1476,10 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -1512,10 +1515,10 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -1551,10 +1554,10 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -1590,10 +1593,10 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -1629,23 +1632,28 @@
       <c r="M13" s="1">
         <v>107</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">

--- a/Confusion Matrices.xlsx
+++ b/Confusion Matrices.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AlexNet" sheetId="1" r:id="rId1"/>
     <sheet name="Inception" sheetId="3" r:id="rId2"/>
+    <sheet name="Inception (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Altocumulus</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Cirrostratus</t>
   </si>
   <si>
-    <t>AlexNet</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
@@ -72,39 +70,38 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Inception</t>
+    <t>InceptionResNetV2 
+Epoch = 45 
+Image dataset V1</t>
   </si>
   <si>
-    <t>Epoch  = 50. Loss: 2.082758757095138, Accuracy: 0.559322033393181</t>
+    <t>Epoch  =  30, Loss: 1.577645208936987, Accuracy: 0.6310013712515393</t>
   </si>
   <si>
-    <t>Epoch  = 45. Loss: 1.7908467705588609, Accuracy: 0.6414602342143052</t>
+    <t>Epoch  =  45, Loss: 1.7908467705588609, Accuracy: 0.6414602342143052</t>
+  </si>
+  <si>
+    <t>Epoch  = 50, Loss: 2.082758757095138, Accuracy: 0.559322033393181</t>
+  </si>
+  <si>
+    <t>InceptionResNetV2 
+Epoch = 30 
+Image dataset V2</t>
+  </si>
+  <si>
+    <t>AlexNet
+Epoch = 50 
+Image dataset V1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,8 +121,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,31 +188,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="47"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="47"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,520 +534,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="2:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>17</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="F3" s="7">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>6</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>72</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>4</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="7">
         <v>4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <v>7</v>
       </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
         <v>26</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>38</v>
       </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>9</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>37</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>26</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>34</v>
       </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>7</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>16</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>34</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>29</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
         <v>7</v>
       </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
         <v>26</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
         <v>9</v>
       </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <v>99</v>
       </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C14:M14"/>
     <mergeCell ref="N3:N13"/>
+    <mergeCell ref="B15:N15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="colorScale" priority="11">
@@ -1150,520 +1209,1238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    <row r="2" spans="2:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>46</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>81</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
         <v>7</v>
       </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>28</v>
       </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>13</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>44</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>9</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>6</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
         <v>9</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>44</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <v>33</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>33</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>43</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
         <v>32</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="7">
         <v>7</v>
       </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
         <v>27</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
         <v>7</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <v>107</v>
       </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="N3:N13"/>
     <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B15:N15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:C13">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
+      <c r="K11" s="7">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>18</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>111</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N3:N13"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="B15:N15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C13">
     <cfRule type="colorScale" priority="11">
